--- a/backend/Sample TX Data copy.xlsx
+++ b/backend/Sample TX Data copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Fname</t>
   </si>
@@ -544,7 +544,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L912"/>
+  <dimension ref="A1:L913"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -626,26 +626,42 @@
       <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
+      <c r="H2" s="5">
+        <v>79107</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="15.75">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868445</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="15.75">
@@ -658,8 +674,8 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.75">
@@ -672,9 +688,9 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75">
       <c r="A6" s="4"/>
@@ -686,9 +702,9 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15.75">
       <c r="A7" s="4"/>
@@ -700,8 +716,8 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15.75">
@@ -714,9 +730,9 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15.75">
       <c r="A9" s="4"/>
@@ -728,9 +744,9 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15.75">
       <c r="A10" s="4"/>
@@ -743,7 +759,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="15.75">
@@ -756,9 +772,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="15.75">
       <c r="A12" s="4"/>
@@ -770,9 +786,9 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="15.75">
       <c r="A13" s="4"/>
@@ -798,8 +814,8 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="15.75">
@@ -812,8 +828,8 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="15.75">
@@ -924,9 +940,9 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15.75">
       <c r="A24" s="4"/>
@@ -952,9 +968,9 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15.75">
       <c r="A26" s="4"/>
@@ -966,8 +982,8 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15.75">
@@ -980,8 +996,8 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15.75">
@@ -1008,8 +1024,8 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75">
@@ -1022,8 +1038,8 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75">
@@ -1036,9 +1052,9 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
       <c r="A32" s="4"/>
@@ -1050,9 +1066,9 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
       <c r="A33" s="4"/>
@@ -1064,8 +1080,8 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15.75">
@@ -1078,8 +1094,8 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75">
@@ -1106,8 +1122,8 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
@@ -1120,7 +1136,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="9"/>
+      <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
@@ -1134,7 +1150,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="8"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
@@ -1162,7 +1178,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="9"/>
+      <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
@@ -1176,8 +1192,8 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
@@ -1190,8 +1206,8 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
       <c r="L42" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
@@ -1204,8 +1220,8 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
@@ -1218,7 +1234,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="10"/>
+      <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
@@ -1232,7 +1248,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="10"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
@@ -1246,7 +1262,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="8"/>
+      <c r="J46" s="9"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
@@ -1260,9 +1276,9 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="11"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
       <c r="A48" s="4"/>
@@ -1274,9 +1290,9 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="8"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">
       <c r="A49" s="4"/>
@@ -1288,19 +1304,19 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
       <c r="I50" s="6"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -1316,7 +1332,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="7"/>
+      <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
@@ -1330,8 +1346,8 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75">
@@ -1344,8 +1360,8 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
       <c r="L53" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75">
@@ -1372,8 +1388,8 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75">
@@ -1387,7 +1403,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="6"/>
       <c r="J56" s="10"/>
-      <c r="K56" s="8"/>
+      <c r="K56" s="10"/>
       <c r="L56" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75">
@@ -1400,7 +1416,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="8"/>
+      <c r="J57" s="10"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
@@ -1414,8 +1430,8 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
       <c r="L58" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75">
@@ -1442,8 +1458,8 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
       <c r="L60" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75">
@@ -1456,22 +1472,22 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
       <c r="L61" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75">
@@ -1484,8 +1500,8 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
       <c r="L63" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75">
@@ -1498,23 +1514,23 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15.75">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="11"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75">
       <c r="A66" s="10"/>
@@ -1526,9 +1542,9 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="15.75">
       <c r="A67" s="10"/>
@@ -1554,7 +1570,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="10"/>
+      <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
@@ -1568,7 +1584,7 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="6"/>
-      <c r="J69" s="8"/>
+      <c r="J69" s="10"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
     </row>
@@ -1596,9 +1612,9 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="6"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="15.75">
       <c r="A72" s="10"/>
@@ -1611,8 +1627,8 @@
       <c r="H72" s="10"/>
       <c r="I72" s="6"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="15.75">
       <c r="A73" s="10"/>
@@ -1624,9 +1640,9 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="6"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="11"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="15.75">
       <c r="A74" s="10"/>
@@ -1638,9 +1654,9 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="6"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="15.75">
       <c r="A75" s="10"/>
@@ -1666,8 +1682,8 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="6"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
       <c r="L76" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="15.75">
@@ -1680,8 +1696,8 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="6"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
       <c r="L77" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="15.75">
@@ -1736,8 +1752,8 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="6"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
       <c r="L81" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="15.75">
@@ -1750,8 +1766,8 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="6"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
       <c r="L82" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="15.75">
@@ -1764,8 +1780,8 @@
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
       <c r="L83" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="15.75">
@@ -1792,8 +1808,8 @@
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="6"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
       <c r="L85" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="15.75">
@@ -1820,9 +1836,9 @@
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="15.75">
       <c r="A88" s="10"/>
@@ -1836,7 +1852,7 @@
       <c r="I88" s="6"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
-      <c r="L88" s="8"/>
+      <c r="L88" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="15.75">
       <c r="A89" s="10"/>
@@ -1848,8 +1864,8 @@
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
       <c r="L89" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="15.75">
@@ -1862,9 +1878,9 @@
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="15.75">
       <c r="A91" s="10"/>
@@ -1876,9 +1892,9 @@
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="15.75">
       <c r="A92" s="10"/>
@@ -1890,8 +1906,8 @@
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="6"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="7"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
       <c r="L92" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15.75">
@@ -1905,7 +1921,7 @@
       <c r="H93" s="10"/>
       <c r="I93" s="6"/>
       <c r="J93" s="10"/>
-      <c r="K93" s="8"/>
+      <c r="K93" s="7"/>
       <c r="L93" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="15.75">
@@ -1918,9 +1934,9 @@
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="6"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="15.75">
       <c r="A95" s="10"/>
@@ -1932,9 +1948,9 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="11"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="15.75">
       <c r="A96" s="10"/>
@@ -1947,8 +1963,8 @@
       <c r="H96" s="10"/>
       <c r="I96" s="6"/>
       <c r="J96" s="10"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="15.75">
       <c r="A97" s="10"/>
@@ -1960,9 +1976,9 @@
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="6"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="15.75">
       <c r="A98" s="10"/>
@@ -1974,9 +1990,9 @@
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="6"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="8"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="15.75">
       <c r="A99" s="10"/>
@@ -1988,8 +2004,8 @@
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
       <c r="L99" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="15.75">
@@ -2002,9 +2018,9 @@
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="15.75">
       <c r="A101" s="10"/>
@@ -2016,9 +2032,9 @@
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="6"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="15.75">
       <c r="A102" s="10"/>
@@ -2044,9 +2060,9 @@
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="6"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="15.75">
       <c r="A104" s="10"/>
@@ -2058,9 +2074,9 @@
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="15.75">
       <c r="A105" s="10"/>
@@ -2170,9 +2186,9 @@
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="6"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="15.75">
       <c r="A113" s="10"/>
@@ -2198,9 +2214,9 @@
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="6"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="15.75">
       <c r="A115" s="10"/>
@@ -2212,9 +2228,9 @@
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
       <c r="I115" s="6"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="8"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="15.75">
       <c r="A116" s="10"/>
@@ -2226,8 +2242,8 @@
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="6"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
       <c r="L116" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="15.75">
@@ -2254,8 +2270,8 @@
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
       <c r="I118" s="6"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
       <c r="L118" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="15.75">
@@ -2268,8 +2284,8 @@
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
       <c r="I119" s="6"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="8"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
       <c r="L119" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="15.75">
@@ -2296,7 +2312,7 @@
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
       <c r="I121" s="6"/>
-      <c r="J121" s="8"/>
+      <c r="J121" s="10"/>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
     </row>
@@ -2310,7 +2326,7 @@
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
       <c r="I122" s="6"/>
-      <c r="J122" s="10"/>
+      <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
     </row>
@@ -2325,7 +2341,7 @@
       <c r="H123" s="10"/>
       <c r="I123" s="6"/>
       <c r="J123" s="10"/>
-      <c r="K123" s="7"/>
+      <c r="K123" s="8"/>
       <c r="L123" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="15.75">
@@ -2338,7 +2354,7 @@
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
       <c r="I124" s="6"/>
-      <c r="J124" s="7"/>
+      <c r="J124" s="10"/>
       <c r="K124" s="7"/>
       <c r="L124" s="8"/>
     </row>
@@ -2352,8 +2368,8 @@
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
       <c r="I125" s="6"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="8"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
       <c r="L125" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="15.75">
@@ -2366,7 +2382,7 @@
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
       <c r="I126" s="6"/>
-      <c r="J126" s="7"/>
+      <c r="J126" s="10"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
     </row>
@@ -2380,7 +2396,7 @@
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
       <c r="I127" s="6"/>
-      <c r="J127" s="8"/>
+      <c r="J127" s="7"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
     </row>
@@ -2408,7 +2424,7 @@
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
       <c r="I129" s="6"/>
-      <c r="J129" s="7"/>
+      <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
     </row>
@@ -2422,7 +2438,7 @@
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
       <c r="I130" s="6"/>
-      <c r="J130" s="10"/>
+      <c r="J130" s="7"/>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
     </row>
@@ -2436,7 +2452,7 @@
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="6"/>
-      <c r="J131" s="8"/>
+      <c r="J131" s="10"/>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
     </row>
@@ -2450,8 +2466,8 @@
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
       <c r="I132" s="6"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
       <c r="L132" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="15.75">
@@ -2464,8 +2480,8 @@
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
       <c r="I133" s="6"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
       <c r="L133" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="15.75">
@@ -2478,7 +2494,7 @@
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="6"/>
-      <c r="J134" s="7"/>
+      <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
     </row>
@@ -2492,7 +2508,7 @@
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
       <c r="I135" s="6"/>
-      <c r="J135" s="8"/>
+      <c r="J135" s="7"/>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
     </row>
@@ -2562,9 +2578,9 @@
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
       <c r="I140" s="6"/>
-      <c r="J140" s="10"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="10"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="15.75">
       <c r="A141" s="10"/>
@@ -2576,9 +2592,9 @@
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
       <c r="I141" s="6"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="15.75">
       <c r="A142" s="10"/>
@@ -2674,8 +2690,8 @@
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
       <c r="I148" s="6"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
       <c r="L148" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="15.75">
@@ -2688,8 +2704,8 @@
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
       <c r="I149" s="6"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
       <c r="L149" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="15.75">
@@ -2702,8 +2718,8 @@
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
       <c r="I150" s="6"/>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
       <c r="L150" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="15.75">
@@ -2716,8 +2732,8 @@
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
       <c r="I151" s="6"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
       <c r="L151" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="15.75">
@@ -2730,8 +2746,8 @@
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
       <c r="I152" s="6"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
       <c r="L152" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="15.75">
@@ -2744,9 +2760,9 @@
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
       <c r="I153" s="6"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
-      <c r="L153" s="7"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="15.75">
       <c r="A154" s="10"/>
@@ -2758,9 +2774,9 @@
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
       <c r="I154" s="6"/>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
-      <c r="L154" s="8"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="15.75">
       <c r="A155" s="10"/>
@@ -2786,8 +2802,8 @@
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
       <c r="I156" s="6"/>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
       <c r="L156" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="15.75">
@@ -2814,9 +2830,9 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
       <c r="I158" s="6"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
-      <c r="L158" s="11"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="15.75">
       <c r="A159" s="10"/>
@@ -2828,9 +2844,9 @@
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
       <c r="I159" s="6"/>
-      <c r="J159" s="8"/>
-      <c r="K159" s="8"/>
-      <c r="L159" s="8"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="15.75">
       <c r="A160" s="10"/>
@@ -3038,9 +3054,9 @@
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
       <c r="I174" s="6"/>
-      <c r="J174" s="10"/>
-      <c r="K174" s="10"/>
-      <c r="L174" s="11"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="15.75">
       <c r="A175" s="10"/>
@@ -3052,9 +3068,9 @@
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
       <c r="I175" s="6"/>
-      <c r="J175" s="8"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="8"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="15.75">
       <c r="A176" s="10"/>
@@ -3080,22 +3096,22 @@
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
       <c r="I177" s="6"/>
-      <c r="J177" s="7"/>
-      <c r="K177" s="7"/>
+      <c r="J177" s="8"/>
+      <c r="K177" s="8"/>
       <c r="L177" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="15.75">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
       <c r="I178" s="6"/>
-      <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
       <c r="L178" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="15.75">
@@ -3164,8 +3180,8 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="6"/>
-      <c r="J183" s="10"/>
-      <c r="K183" s="10"/>
+      <c r="J183" s="8"/>
+      <c r="K183" s="8"/>
       <c r="L183" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="15.75">
@@ -3180,7 +3196,7 @@
       <c r="I184" s="6"/>
       <c r="J184" s="10"/>
       <c r="K184" s="10"/>
-      <c r="L184" s="11"/>
+      <c r="L184" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="15.75">
       <c r="A185" s="4"/>
@@ -3192,9 +3208,9 @@
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="6"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="8"/>
-      <c r="L185" s="8"/>
+      <c r="J185" s="10"/>
+      <c r="K185" s="10"/>
+      <c r="L185" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="15.75">
       <c r="A186" s="4"/>
@@ -3234,8 +3250,8 @@
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="6"/>
-      <c r="J188" s="9"/>
-      <c r="K188" s="9"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
       <c r="L188" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="15.75">
@@ -3248,8 +3264,8 @@
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="6"/>
-      <c r="J189" s="8"/>
-      <c r="K189" s="8"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
       <c r="L189" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="15.75">
@@ -3318,9 +3334,9 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="6"/>
-      <c r="J194" s="10"/>
-      <c r="K194" s="10"/>
-      <c r="L194" s="11"/>
+      <c r="J194" s="8"/>
+      <c r="K194" s="8"/>
+      <c r="L194" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="15.75">
       <c r="A195" s="4"/>
@@ -3332,9 +3348,9 @@
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="6"/>
-      <c r="J195" s="8"/>
-      <c r="K195" s="8"/>
-      <c r="L195" s="8"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10"/>
+      <c r="L195" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="15.75">
       <c r="A196" s="4"/>
@@ -3346,8 +3362,8 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="6"/>
-      <c r="J196" s="9"/>
-      <c r="K196" s="9"/>
+      <c r="J196" s="8"/>
+      <c r="K196" s="8"/>
       <c r="L196" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="15.75">
@@ -3360,8 +3376,8 @@
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="6"/>
-      <c r="J197" s="8"/>
-      <c r="K197" s="8"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
       <c r="L197" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="15.75">
@@ -3388,8 +3404,8 @@
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="6"/>
-      <c r="J199" s="9"/>
-      <c r="K199" s="9"/>
+      <c r="J199" s="8"/>
+      <c r="K199" s="8"/>
       <c r="L199" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="15.75">
@@ -3402,8 +3418,8 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="6"/>
-      <c r="J200" s="13"/>
-      <c r="K200" s="8"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
       <c r="L200" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="15.75">
@@ -3416,36 +3432,36 @@
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="6"/>
-      <c r="J201" s="7"/>
-      <c r="K201" s="7"/>
+      <c r="J201" s="13"/>
+      <c r="K201" s="8"/>
       <c r="L201" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="15.75">
-      <c r="A202" s="10"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
-      <c r="H202" s="10"/>
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
       <c r="I202" s="6"/>
-      <c r="J202" s="10"/>
-      <c r="K202" s="10"/>
+      <c r="J202" s="7"/>
+      <c r="K202" s="7"/>
       <c r="L202" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="15.75">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
-      <c r="C203" s="15"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
-      <c r="F203" s="14"/>
-      <c r="G203" s="14"/>
-      <c r="H203" s="14"/>
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
       <c r="I203" s="6"/>
-      <c r="J203" s="8"/>
-      <c r="K203" s="8"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
       <c r="L203" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="15.75">
@@ -13374,6 +13390,20 @@
       <c r="K912" s="8"/>
       <c r="L912" s="8"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="15.75">
+      <c r="A913" s="14"/>
+      <c r="B913" s="14"/>
+      <c r="C913" s="15"/>
+      <c r="D913" s="14"/>
+      <c r="E913" s="14"/>
+      <c r="F913" s="14"/>
+      <c r="G913" s="14"/>
+      <c r="H913" s="14"/>
+      <c r="I913" s="6"/>
+      <c r="J913" s="8"/>
+      <c r="K913" s="8"/>
+      <c r="L913" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
